--- a/Machine learning for dummies/1 Predictions/Anropa prediction för valideringstid.xlsx
+++ b/Machine learning for dummies/1 Predictions/Anropa prediction för valideringstid.xlsx
@@ -383,7 +383,7 @@
     <we:reference id="WA104379638" version="1.0.0.0" store="WA104379638" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
-    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;\&quot;,\&quot;includeHeaders\&quot;:true}},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;\&quot;,\&quot;includeHeaders\&quot;:true}},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/8d004e686c6c41d9b7b13c45f7e270c6/services/68550e0c64d2441ba8c556717ace576b/execute?api-version=2.0&amp;details=true\&quot;,\&quot;token\&quot;:\&quot;6waYAcb7ewVfA/MAGV0uCj/Y8zqbe40YClpIIaC9b9RJGx2zy8NhHAUeYrn70T9fF78JgUhNK6ZE+o/Wq32hPQ==\&quot;,\&quot;serviceName\&quot;:\&quot;Ärendevalidering [Predictive Exp.]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true}]&quot;"/>
+    <we:property name="endpoints" value="&quot;[{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/2a951e49ed8d43cfbe3afc68aa6d3878/swagger.json\&quot;,\&quot;token\&quot;:\&quot;xSc38GPprrK3FGyGMn5uQEJVD7wNUZgOn2UZt+vrFLMLFAyqGB+YhkF5o0JH57hfUYuIxZ7so1rf5DQ2nDfdGA==\&quot;,\&quot;serviceName\&quot;:\&quot;Titanic Survivor Predictor (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;\&quot;,\&quot;includeHeaders\&quot;:true}},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/odata/workspaces/52a9fe1f0655445a9ec08cbaf87c3ffa/services/0153ed4ecce44d999e7846d8f0e8102a\&quot;,\&quot;token\&quot;:\&quot;QR+dXhrglxsnO5WJ4/s0me85cwO+4WF7FcWVoUUSqFwzGyFCYbMIpzYfSaMwkNdNJGGavTDvVTlNbP1gv9Yh9A==\&quot;,\&quot;serviceName\&quot;:\&quot;Text Sentiment Analysis (Excel Add-in Sample) [Score]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{\&quot;output1\&quot;:{\&quot;id\&quot;:\&quot;\&quot;,\&quot;includeHeaders\&quot;:true}},\&quot;showOverwriteWarning\&quot;:true},{\&quot;documentationUrl\&quot;:\&quot;https://ussouthcentral.services.azureml.net/workspaces/8d004e686c6c41d9b7b13c45f7e270c6/services/b20bf610c7e84fc4bcdabcd92899bfb5/execute?api-version=2.0&amp;details=true\&quot;,\&quot;token\&quot;:\&quot;5rSdmUjafkubYa1HMij45LyR66WFSyFPIxzQe+WU0mTaFdSYcVQyDWZEtRVNosOnXx2VPa+lLtYqlLUlFK/Mgw==\&quot;,\&quot;serviceName\&quot;:\&quot;Ärendevalidering [Predictive Exp.]\&quot;,\&quot;globalParametersValues\&quot;:{},\&quot;outputCellValues\&quot;:{},\&quot;showOverwriteWarning\&quot;:true}]&quot;"/>
   </we:properties>
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
